--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB299816-0818-4DE4-9FFF-56BB62F860EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB59CF-DBEA-4238-A096-E4AC5121AD4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -817,11 +817,11 @@
         <v>0.02</v>
       </c>
       <c r="F5" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="2">
         <f>F5/5</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB59CF-DBEA-4238-A096-E4AC5121AD4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2319D9-6207-4C66-B5AC-2F25E5911133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>Enable_Participation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +652,10 @@
         <v>9</v>
       </c>
       <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -746,7 +746,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -767,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -776,13 +776,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -868,12 +868,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -897,16 +897,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1023,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1042,7 +1042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1086,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2319D9-6207-4C66-B5AC-2F25E5911133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4B6B0-2FB8-40A2-8D6A-3203B1DF932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>G (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -607,17 +603,17 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -652,10 +648,10 @@
         <v>9</v>
       </c>
       <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
         <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -745,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -767,23 +763,23 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -858,22 +854,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -883,7 +879,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -897,16 +893,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -932,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -943,12 +939,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -971,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -991,8 +987,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1023,17 +1019,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000</f>
@@ -1042,7 +1038,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1050,7 +1046,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1058,7 +1054,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1086,17 +1082,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1104,7 +1100,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1112,7 +1108,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1120,7 +1116,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1128,7 +1124,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1136,7 +1132,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1144,7 +1140,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1152,7 +1148,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1160,7 +1156,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1168,7 +1164,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4B6B0-2FB8-40A2-8D6A-3203B1DF932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE420B-1BDE-4F00-AF39-9DFAC6740526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -593,6 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -739,10 +740,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -826,13 +828,13 @@
         <v>0.05</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L5" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -844,6 +846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -926,9 +929,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1003,6 +1007,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1069,6 +1074,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE420B-1BDE-4F00-AF39-9DFAC6740526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBFEF3-83BB-4ADB-A32A-C87814351416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,36 @@
   <si>
     <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLf (pu)</t>
+  </si>
+  <si>
+    <t>Rf (pu)</t>
+  </si>
+  <si>
+    <t>wCf (pu)</t>
+  </si>
+  <si>
+    <t>wLc (pu)</t>
+  </si>
+  <si>
+    <t>Rc (pu)</t>
+  </si>
+  <si>
+    <t>Xov (pu)</t>
+  </si>
+  <si>
+    <t>Droop Dw</t>
+  </si>
+  <si>
+    <t>BW droop (Hz)</t>
+  </si>
+  <si>
+    <t>BW vdq (Hz)</t>
+  </si>
+  <si>
+    <t>BW idq (Hz)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +627,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -681,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -707,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -719,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -741,10 +771,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -754,11 +784,11 @@
     <col min="3" max="3" width="13.9296875" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="13.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" customWidth="1"/>
-    <col min="8" max="8" width="22.265625" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" customWidth="1"/>
+    <col min="9" max="9" width="12.46484375" customWidth="1"/>
+    <col min="10" max="10" width="14.9296875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" customWidth="1"/>
   </cols>
@@ -774,66 +804,99 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.05</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5/5</f>
+      <c r="D6" s="2">
+        <f>C6/10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.01</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="2">
-        <f>F5/5</f>
-        <v>2E-3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="G6" s="2">
+        <f>F6/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
         <v>300</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L6" s="2">
         <v>600</v>
       </c>
     </row>
@@ -850,7 +913,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -933,7 +996,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -982,8 +1045,8 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>D4/5</f>
-        <v>0.02</v>
+        <f>D4/10</f>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -1078,7 +1141,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1141,7 +1204,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE420B-1BDE-4F00-AF39-9DFAC6740526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C8298-2F6F-497E-BE6C-60057DA4C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -743,8 +743,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -808,8 +808,8 @@
         <v>0.05</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/5</f>
-        <v>0.01</v>
+        <f>C5/10</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0.02</v>
@@ -818,8 +818,8 @@
         <v>0.01</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/5</f>
-        <v>2E-3</v>
+        <f>F5/10</f>
+        <v>1E-3</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0.05</v>
       </c>
       <c r="J5" s="2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="2">
         <v>300</v>
@@ -933,7 +933,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -982,8 +982,8 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>D4/5</f>
-        <v>0.02</v>
+        <f>D4/10</f>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1141,7 +1141,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C8298-2F6F-497E-BE6C-60057DA4C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6AAAD-D671-4968-BABF-A85CA5A87802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
